--- a/biology/Botanique/Lithophyllum/Lithophyllum.xlsx
+++ b/biology/Botanique/Lithophyllum/Lithophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lithophyllum est un genre d’algues rouges de la famille des Corallinaceae. Certaines espèces de ce genre sont considérées comme bioconstructrices (ex : Lithophyllum lichenoide[3],[4]).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lithophyllum est un genre d’algues rouges de la famille des Corallinaceae. Certaines espèces de ce genre sont considérées comme bioconstructrices (ex : Lithophyllum lichenoide,).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (25 août 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (25 août 2017) :
 Lithophyllum acanthinum Foslie
 Lithophyllum accedens Foslie
 Lithophyllum acrocamptum Heydrich
@@ -660,7 +674,7 @@
 Lithophyllum viennotii Me.Lemoine
 Lithophyllum yemenense Basso, Caragnano, Le Gall &amp; Rodondi
 Lithophyllum yessoense Foslie
-Selon BioLib                    (25 août 2017)[5] :
+Selon BioLib                    (25 août 2017) :
 Lithophyllum byssoides
 Lithophyllum corallinae
 Lithophyllum fasciculatum
@@ -680,7 +694,7 @@
 Lithophyllum subtenellum
 Lithophyllum tenuicrustum
 Lithophyllum thikombian
-Selon ITIS      (25 août 2017)[6] :
+Selon ITIS      (25 août 2017) :
 Lithophyllum corallinae
 Lithophyllum fasciculatum
 Lithophyllum fulangasum
@@ -696,7 +710,7 @@
 Lithophyllum subtenellum
 Lithophyllum tenuicrustum
 Lithophyllum thikombian
-Selon Paleobiology Database                   (25 août 2017)[7] :
+Selon Paleobiology Database                   (25 août 2017) :
 Lithophyllum albanense
 Lithophyllum anguineum
 Lithophyllum bassanense
@@ -727,7 +741,7 @@
 Lithophyllum royoi
 Lithophyllum simplex
 Lithophyllum vicetinum
-Selon World Register of Marine Species                               (25 août 2017)[2] :
+Selon World Register of Marine Species                               (25 août 2017) :
 Lithophyllum acanthinum Foslie, 1907
 Lithophyllum accedens Foslie, 1907
 Lithophyllum acrocamptum Heydrich, 1902
